--- a/biology/Médecine/Institut_hospitalo-universitaire/Institut_hospitalo-universitaire.xlsx
+++ b/biology/Médecine/Institut_hospitalo-universitaire/Institut_hospitalo-universitaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les instituts hospitalo-universitaires (IHU) sont des établissements de formation et de recherche médicale. Ils ont été créés à la suite des investissements d'avenir lancés par Nicolas Sarkozy en 2009. Les instituts hospitalo-universitaires sont associés à des universités, des centres hospitaliers universitaires ainsi que des laboratoires de recherche privés et publics. Ils ont pour but d'être des pôles d’excellence de la recherche médicale française, de former des spécialistes dans leurs domaines de compétence, d'attirer des chercheurs renommés et la valorisation de leurs travaux. Des retombées économiques importantes sont attendues, en effet les instituts doivent permettre « le développement de produits de santé innovants » en tissant des partenariats et « accroître l’attractivité de la France pour les industries de santé, améliorant ainsi l’efficacité des soins par la maîtrise des coûts »[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les instituts hospitalo-universitaires (IHU) sont des établissements de formation et de recherche médicale. Ils ont été créés à la suite des investissements d'avenir lancés par Nicolas Sarkozy en 2009. Les instituts hospitalo-universitaires sont associés à des universités, des centres hospitaliers universitaires ainsi que des laboratoires de recherche privés et publics. Ils ont pour but d'être des pôles d’excellence de la recherche médicale française, de former des spécialistes dans leurs domaines de compétence, d'attirer des chercheurs renommés et la valorisation de leurs travaux. Des retombées économiques importantes sont attendues, en effet les instituts doivent permettre « le développement de produits de santé innovants » en tissant des partenariats et « accroître l’attractivité de la France pour les industries de santé, améliorant ainsi l’efficacité des soins par la maîtrise des coûts »,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les instituts hospitalo-universitaires sont une création émanant du programme Santé et biotechnologies des investissements d'avenir. Leur création est liée à une recommandation de la commission Marescaux sur l’Avenir des Centres Hospitaliers Universitaires mise en place en 2009 par l'ancien président de la République, Nicolas Sarkozy. Près de 850 millions d’euros seront consacrés à leur création, chaque IHU bénéficiant d'une dotation en capital, dont 20 % du capital directement consommable, le reste (80 %) devant être destiné à lui assurer des revenus réguliers[3].
-La première sélection des instituts s'est faite en 2010 par un jury international sélectionnant les meilleurs dossiers, présidé par le neuroscientifique Richard Frackowiak, professeur de neurologie au centre hospitalier universitaire vaudois de Lausanne. Au départ seuls cinq dossiers devaient être sélectionnés sur dix-neuf projets retenus mais finalement six projets furent sélectionnés et dévoilés le 30 mars 2011[1],[4].
-Une 2ème sélection est faite en 2018 dans le cadre du 3ème programme d'investissement d'avenir (PIA3) avec la création d'un septième institut hospitalo-universitaire[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les instituts hospitalo-universitaires sont une création émanant du programme Santé et biotechnologies des investissements d'avenir. Leur création est liée à une recommandation de la commission Marescaux sur l’Avenir des Centres Hospitaliers Universitaires mise en place en 2009 par l'ancien président de la République, Nicolas Sarkozy. Près de 850 millions d’euros seront consacrés à leur création, chaque IHU bénéficiant d'une dotation en capital, dont 20 % du capital directement consommable, le reste (80 %) devant être destiné à lui assurer des revenus réguliers.
+La première sélection des instituts s'est faite en 2010 par un jury international sélectionnant les meilleurs dossiers, présidé par le neuroscientifique Richard Frackowiak, professeur de neurologie au centre hospitalier universitaire vaudois de Lausanne. Au départ seuls cinq dossiers devaient être sélectionnés sur dix-neuf projets retenus mais finalement six projets furent sélectionnés et dévoilés le 30 mars 2011,.
+Une 2ème sélection est faite en 2018 dans le cadre du 3ème programme d'investissement d'avenir (PIA3) avec la création d'un septième institut hospitalo-universitaire.
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Les projets</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur les dix-neuf projets retenus lors de la première sélection, douze projets ont été classés par le jury. Les six premiers projets, classés A ont été retenus et ont donc obtenus un financement dans le cadre du programme IHU[6].
-La 2ème sélection en 2018 a départagé 4 projets pour ne sélectionner que le seul classé A[7]. 
-En 2022, un nouvel appel à projets est lancé dans le cadre du plan France 2030 et doit permettre la création de jusqu'à six nouveaux IHU[8]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur les dix-neuf projets retenus lors de la première sélection, douze projets ont été classés par le jury. Les six premiers projets, classés A ont été retenus et ont donc obtenus un financement dans le cadre du programme IHU.
+La 2ème sélection en 2018 a départagé 4 projets pour ne sélectionner que le seul classé A. 
+En 2022, un nouvel appel à projets est lancé dans le cadre du plan France 2030 et doit permettre la création de jusqu'à six nouveaux IHU. 
 En 2018, tous les IHU s'organisent en réseau des IHU France. L'IHU Méditerranée Infection quitte par la suite[Quand ?] cette alliance.
 </t>
         </is>
